--- a/OREI_files/10-herd data/MALDI files/Organizational sheets for MALDI shipments and IDs_ redos_counts_ regrows.xlsx
+++ b/OREI_files/10-herd data/MALDI files/Organizational sheets for MALDI shipments and IDs_ redos_counts_ regrows.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/MALDI files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{1DC52327-D03E-4E84-85ED-8BE1BCB3BCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="14_{1DC52327-D03E-4E84-85ED-8BE1BCB3BCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36437C96-6D82-4DF1-B122-51FFC3DC65BF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F455A7E1-6A31-4F36-AA10-0D3A3572E850}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="counts of isolates sent" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="278">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="299">
   <si>
     <t xml:space="preserve">should have been ID'd as CNS as cat was positive initially </t>
   </si>
@@ -64,9 +60,6 @@
     <t>really long rod on gram stain, doesn't look like coryne even</t>
   </si>
   <si>
-    <t>maybe?</t>
-  </si>
-  <si>
     <t>pale yellow 2-3 mm smooth, no hem, gram + rods, cat +</t>
   </si>
   <si>
@@ -787,9 +780,6 @@
     <t>Enterococcus saccharolyticus</t>
   </si>
   <si>
-    <t>STREP</t>
-  </si>
-  <si>
     <t>pinpoint translucent, + hem, gram + cocci, cat -</t>
   </si>
   <si>
@@ -805,9 +795,6 @@
     <t>pinpoint translucent, smooth; no hem; gram + rods; cat -</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>translucent pinpoint; no hem; gram + cocci; cat -</t>
   </si>
   <si>
@@ -826,9 +813,6 @@
     <t>beige, opaque, mucoid; no hem; gram + cocci; cat +</t>
   </si>
   <si>
-    <t>translucent white, irreg edge; no hem; gram + rods; cat -</t>
-  </si>
-  <si>
     <t>beige, irreg. edge; no hem; gram + rods; cat -</t>
   </si>
   <si>
@@ -863,13 +847,124 @@
   </si>
   <si>
     <t>Ashma?</t>
+  </si>
+  <si>
+    <t>re-passed, split</t>
+  </si>
+  <si>
+    <t>re-passed</t>
+  </si>
+  <si>
+    <t>delayed weak +</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">translucent white, irreg edge; no hem; gram + rods; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cat -</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>translucent pinpoint;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no hem; gram + cocci; cat -</t>
+    </r>
+  </si>
+  <si>
+    <t>mostly, colonies bigger</t>
+  </si>
+  <si>
+    <t>no, did this get contam with SA?</t>
+  </si>
+  <si>
+    <t>really should be coryne, based on gram stain</t>
+  </si>
+  <si>
+    <t>gram + club shapes, pure culture?</t>
+  </si>
+  <si>
+    <t>rods and spores</t>
+  </si>
+  <si>
+    <t>yes, based on gram stain and colony morph</t>
+  </si>
+  <si>
+    <t>gram +, diplococci?</t>
+  </si>
+  <si>
+    <t>Can move on, trust MALDI result</t>
+  </si>
+  <si>
+    <t>yes, mostly, still show John</t>
+  </si>
+  <si>
+    <t>v. short gram - ?rods?</t>
+  </si>
+  <si>
+    <t>yes, when grows on macconkey</t>
+  </si>
+  <si>
+    <t>looks like strep to me?</t>
+  </si>
+  <si>
+    <t>re-plate, re-gram?</t>
+  </si>
+  <si>
+    <t>gram stain 7.7.21, gram pos cocci-&gt;pleo rods?</t>
+  </si>
+  <si>
+    <t>BW034B</t>
+  </si>
+  <si>
+    <t>looks just like chromogenes, was coag neg</t>
+  </si>
+  <si>
+    <t>grew non-hemolytic thing, make new gram, see if got contam with SA</t>
+  </si>
+  <si>
+    <t>make a new gram</t>
+  </si>
+  <si>
+    <t>two morph- one cat pos one neg- splitting</t>
+  </si>
+  <si>
+    <t>still delayed cat on new BA (same quarter as 103)</t>
+  </si>
+  <si>
+    <t>still delayed cat on new BA (same quarter as 61)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,8 +1002,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -995,6 +1098,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1041,7 +1150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1076,7 +1185,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1084,6 +1192,8 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1093,6 +1203,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,6 +1212,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -1412,623 +1524,884 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45507051-6332-471A-A26F-86C0F907D117}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="38.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.453125" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" customWidth="1"/>
     <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="61.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="29" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="29" t="s">
+      <c r="E4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="29" t="s">
+      <c r="H4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>296</v>
+      </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="L5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
+        <v>255</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="H11" t="s">
         <v>11</v>
       </c>
-      <c r="M10" t="s">
-        <v>10</v>
+      <c r="K11" t="s">
+        <v>277</v>
+      </c>
+      <c r="L11" t="s">
+        <v>278</v>
+      </c>
+      <c r="M11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>258</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>270</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" t="s">
         <v>248</v>
       </c>
-      <c r="E13" t="s">
-        <v>245</v>
-      </c>
-      <c r="H13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>255</v>
-      </c>
-      <c r="M13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>242</v>
-      </c>
-      <c r="K14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" t="s">
-        <v>251</v>
-      </c>
-      <c r="E15" t="s">
-        <v>241</v>
-      </c>
-      <c r="K15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B18" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="K18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>241</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E38" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>293</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>242</v>
-      </c>
-      <c r="K20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B25" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" t="s">
-        <v>244</v>
-      </c>
-      <c r="E25" t="s">
-        <v>252</v>
-      </c>
-      <c r="K25" t="s">
-        <v>253</v>
-      </c>
-      <c r="M25" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" t="s">
-        <v>246</v>
-      </c>
-      <c r="E26" t="s">
-        <v>241</v>
-      </c>
-      <c r="K26" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E27" t="s">
-        <v>241</v>
-      </c>
-      <c r="K27" t="s">
-        <v>259</v>
-      </c>
-      <c r="L27" t="s">
-        <v>258</v>
-      </c>
-      <c r="M27" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" t="s">
-        <v>249</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>245</v>
-      </c>
-      <c r="K29" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" t="s">
-        <v>247</v>
-      </c>
-      <c r="E30" t="s">
-        <v>241</v>
-      </c>
-      <c r="K30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" t="s">
-        <v>250</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>241</v>
-      </c>
-      <c r="K32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B34" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" t="s">
-        <v>242</v>
-      </c>
-      <c r="K34" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B35" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-      <c r="K35" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B36" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" t="s">
-        <v>229</v>
-      </c>
-      <c r="E36" t="s">
-        <v>241</v>
-      </c>
-      <c r="K36" t="s">
-        <v>272</v>
+      <c r="L39" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:E32">
-    <sortCondition ref="B18:B32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:E14">
+    <sortCondition ref="B7:B14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2037,7 +2410,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2050,442 +2423,442 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E2" s="25" t="s">
-        <v>176</v>
+      <c r="E2" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>208</v>
+        <v>83</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>209</v>
+        <v>82</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="G5" s="25"/>
+        <v>81</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="H8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" t="s">
-        <v>215</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="H11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="H12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" t="s">
-        <v>221</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="H16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" t="s">
-        <v>220</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="H18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C27" t="s">
         <v>224</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" t="s">
-        <v>225</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>222</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="26" t="s">
-        <v>174</v>
+      <c r="B28" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="26" t="s">
-        <v>179</v>
+      <c r="A34" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="B34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="26" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="26" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B39" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="26" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B40" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="26" t="s">
+      <c r="B42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B41" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="B43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="B44" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2517,396 +2890,396 @@
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
       <c r="O4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K5" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" t="s">
         <v>90</v>
       </c>
-      <c r="D6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
       <c r="O6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K7" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K9" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K11" s="15"/>
       <c r="O11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E12" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K13" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F14" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" t="s">
         <v>112</v>
-      </c>
-      <c r="O14" t="s">
-        <v>115</v>
-      </c>
-      <c r="P14" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E15" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K16" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O17" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" t="s">
-        <v>92</v>
-      </c>
       <c r="O18" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="K19" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="K20" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2930,7 +3303,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -2939,29 +3312,29 @@
     </row>
     <row r="2" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6">
         <v>21</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="M2" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
+      <c r="G2" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="M2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -2970,21 +3343,21 @@
         <v>76</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>80</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="G4" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="J4">
         <v>674</v>
       </c>
@@ -2992,12 +3365,12 @@
         <v>53</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>80</v>
@@ -3006,21 +3379,21 @@
         <v>81</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>79</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="G6" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
       <c r="J6">
         <v>812</v>
       </c>
@@ -3028,12 +3401,12 @@
         <v>81</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>87</v>
@@ -3042,21 +3415,21 @@
         <v>124</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>81</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="G8" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="4">
         <v>4</v>
       </c>
@@ -3064,12 +3437,12 @@
         <v>21</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>72</v>
@@ -3078,12 +3451,12 @@
         <v>77</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -3096,12 +3469,12 @@
         <v>161</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>103</v>
@@ -3111,7 +3484,7 @@
         <v>681</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M11" s="3">
         <f>SUM(M3:M10)</f>
@@ -3120,7 +3493,7 @@
     </row>
     <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5">
         <v>110</v>
@@ -3133,17 +3506,17 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="B17" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
       <c r="M17" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -3152,19 +3525,19 @@
     <row r="18" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P19">
         <v>59</v>
@@ -3196,7 +3569,7 @@
         <v>12</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P21">
         <v>240</v>
@@ -3224,7 +3597,7 @@
         <v>5</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>

--- a/OREI_files/10-herd data/MALDI files/Organizational sheets for MALDI shipments and IDs_ redos_counts_ regrows.xlsx
+++ b/OREI_files/10-herd data/MALDI files/Organizational sheets for MALDI shipments and IDs_ redos_counts_ regrows.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/MALDI files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="14_{1DC52327-D03E-4E84-85ED-8BE1BCB3BCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36437C96-6D82-4DF1-B122-51FFC3DC65BF}"/>
+  <xr:revisionPtr revIDLastSave="398" documentId="14_{1DC52327-D03E-4E84-85ED-8BE1BCB3BCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96CD2BFC-6E65-4623-8C6A-1D732E181C95}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F455A7E1-6A31-4F36-AA10-0D3A3572E850}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jan21 June21 question MALDI ID" sheetId="2" r:id="rId1"/>
-    <sheet name="No growth at Miss June21" sheetId="5" r:id="rId2"/>
-    <sheet name="Box counts and re-dos Jan 2021" sheetId="4" r:id="rId3"/>
-    <sheet name="counts of isolates sent" sheetId="3" r:id="rId4"/>
+    <sheet name="August 2021 submission" sheetId="6" r:id="rId1"/>
+    <sheet name="Jan21 June21 question MALDI ID" sheetId="2" r:id="rId2"/>
+    <sheet name="No growth at Miss June21" sheetId="5" r:id="rId3"/>
+    <sheet name="Box counts and re-dos Jan 2021" sheetId="4" r:id="rId4"/>
+    <sheet name="counts of isolates sent" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="354">
   <si>
     <t xml:space="preserve">should have been ID'd as CNS as cat was positive initially </t>
   </si>
@@ -96,15 +97,9 @@
     <t>white 1-2 mm smooth, DZ hem, gram + cocci, coag+, cat+</t>
   </si>
   <si>
-    <t>from same cow!</t>
-  </si>
-  <si>
     <t>SA</t>
   </si>
   <si>
-    <t>Staphylococcus species</t>
-  </si>
-  <si>
     <t>GV156</t>
   </si>
   <si>
@@ -741,9 +736,6 @@
     <t xml:space="preserve">There actually IS no isolate 78 for Choiniere </t>
   </si>
   <si>
-    <t>they actually DO have now?</t>
-  </si>
-  <si>
     <t>Corynebacterium casei</t>
   </si>
   <si>
@@ -847,12 +839,6 @@
   </si>
   <si>
     <t>Ashma?</t>
-  </si>
-  <si>
-    <t>re-passed, split</t>
-  </si>
-  <si>
-    <t>re-passed</t>
   </si>
   <si>
     <t>delayed weak +</t>
@@ -903,9 +889,6 @@
     <t>no, did this get contam with SA?</t>
   </si>
   <si>
-    <t>really should be coryne, based on gram stain</t>
-  </si>
-  <si>
     <t>gram + club shapes, pure culture?</t>
   </si>
   <si>
@@ -927,9 +910,6 @@
     <t>v. short gram - ?rods?</t>
   </si>
   <si>
-    <t>yes, when grows on macconkey</t>
-  </si>
-  <si>
     <t>looks like strep to me?</t>
   </si>
   <si>
@@ -939,32 +919,218 @@
     <t>gram stain 7.7.21, gram pos cocci-&gt;pleo rods?</t>
   </si>
   <si>
-    <t>BW034B</t>
-  </si>
-  <si>
-    <t>looks just like chromogenes, was coag neg</t>
-  </si>
-  <si>
-    <t>grew non-hemolytic thing, make new gram, see if got contam with SA</t>
-  </si>
-  <si>
-    <t>make a new gram</t>
-  </si>
-  <si>
     <t>two morph- one cat pos one neg- splitting</t>
   </si>
   <si>
-    <t>still delayed cat on new BA (same quarter as 103)</t>
-  </si>
-  <si>
-    <t>still delayed cat on new BA (same quarter as 61)</t>
+    <t>re-send to pamela</t>
+  </si>
+  <si>
+    <t>make new gram, re-send to pamela</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>yes, even though delayed catalase, morphology correct</t>
+  </si>
+  <si>
+    <t>yes, grew on macconkey</t>
+  </si>
+  <si>
+    <t>split out yellow coryne-looking thing, re-submit</t>
+  </si>
+  <si>
+    <t>check new stock, re-send</t>
+  </si>
+  <si>
+    <t>re-passed, multiple morph</t>
+  </si>
+  <si>
+    <t>NG on macconkey, re-send</t>
+  </si>
+  <si>
+    <t>hopelessly contam with SA; change ID back to Strep, will not have MALDI ID</t>
+  </si>
+  <si>
+    <t>check new UVM stock, and replace and then all set</t>
+  </si>
+  <si>
+    <t>re-plate? 7.20</t>
+  </si>
+  <si>
+    <t>new gram looks good, think split from contam with SA</t>
+  </si>
+  <si>
+    <t>"+ ", repeated 7.19</t>
+  </si>
+  <si>
+    <t>re-send to MO</t>
+  </si>
+  <si>
+    <t>re-send this one</t>
+  </si>
+  <si>
+    <t>Send to Missouri July 2021:</t>
+  </si>
+  <si>
+    <t>GV129</t>
+  </si>
+  <si>
+    <t>They ID'd this twice as SA but at some point had been ID'd as Kocuria, we had ID'd it as CNS</t>
+  </si>
+  <si>
+    <t>conflicting results between epidermidis and xylosus</t>
+  </si>
+  <si>
+    <t>yes, Pamela says coryne</t>
+  </si>
+  <si>
+    <t>yes, Pamela says confirmed chromogenes</t>
+  </si>
+  <si>
+    <t>Pamela requests:</t>
+  </si>
+  <si>
+    <t>looks like a strep- should be a strep- Pamela not sure why MALDI won't ID it</t>
+  </si>
+  <si>
+    <t>doesn't really match orig morph desc- is now 2 mm white, smooth- not pinpoint translucent</t>
+  </si>
+  <si>
+    <t>white;  no hem, gram + cocci; cat +</t>
+  </si>
+  <si>
+    <t>epidermidis or xylosus</t>
+  </si>
+  <si>
+    <t>initially equorum, now no growth</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>pinpoint translucent; no hem, gram + cocci, cat +</t>
+  </si>
+  <si>
+    <t>"please re-send"</t>
+  </si>
+  <si>
+    <t>white, moist, smooth, 1 mm; gram + cocci, cat +</t>
+  </si>
+  <si>
+    <t>pinpoint white; gram + cocci, cat +, corynebac?</t>
+  </si>
+  <si>
+    <t>please resend (odd for a S. chromogenes to not grow and then grow well, considered contam)</t>
+  </si>
+  <si>
+    <t>pale yellow, 2-3 mm smooth; gram + cocci, cat +</t>
+  </si>
+  <si>
+    <t>white pinpoint, rough; gram + cocci, cat +</t>
+  </si>
+  <si>
+    <t>"no growth"</t>
+  </si>
+  <si>
+    <t>translucent, white; gram + cocci, cat +</t>
+  </si>
+  <si>
+    <t>Staphylococcus species- from same quarter as pseud</t>
+  </si>
+  <si>
+    <t>RE-DO</t>
+  </si>
+  <si>
+    <t>Was called no growth</t>
+  </si>
+  <si>
+    <t>Why sending?</t>
+  </si>
+  <si>
+    <t>initially ID'd as strep species, then NO ID</t>
+  </si>
+  <si>
+    <t>Isolate</t>
+  </si>
+  <si>
+    <t>Not yet sent</t>
+  </si>
+  <si>
+    <t>Presumptive ID at UVM</t>
+  </si>
+  <si>
+    <t>Catalase</t>
+  </si>
+  <si>
+    <t>white, moist, smooth, 1 mm</t>
+  </si>
+  <si>
+    <t>pinpoint white</t>
+  </si>
+  <si>
+    <t>pale yellow, 2-3 mm smooth</t>
+  </si>
+  <si>
+    <t>white pinpoint, rough</t>
+  </si>
+  <si>
+    <t>translucent, white</t>
+  </si>
+  <si>
+    <t>Requested or result of 7.22 email update</t>
+  </si>
+  <si>
+    <t>MALDI ID (at some point)</t>
+  </si>
+  <si>
+    <t>Morphological description</t>
+  </si>
+  <si>
+    <t>Coagulase</t>
+  </si>
+  <si>
+    <t>gram pos cocci-&gt;pleo rods?</t>
+  </si>
+  <si>
+    <t>Re-sending, as stock here at UVM didn't look clean</t>
+  </si>
+  <si>
+    <t>Think got contam with SA; tried to split off presumptive corynebaterium to re-do</t>
+  </si>
+  <si>
+    <t>Want to re-try this mysterious one</t>
+  </si>
+  <si>
+    <t>Definitely not SA originally; sending presumptive corynebaterium to re-do</t>
+  </si>
+  <si>
+    <t>white; no hemolysis</t>
+  </si>
+  <si>
+    <t>pinpoint translucent; no hemolysis</t>
+  </si>
+  <si>
+    <t>gram +, large cocci? Mixed culture?</t>
+  </si>
+  <si>
+    <t>gram + cocci?</t>
+  </si>
+  <si>
+    <t>make miss copy LF091, PB067, SW114</t>
+  </si>
+  <si>
+    <t>make 2 copies CF240, OB131 when ready</t>
+  </si>
+  <si>
+    <t>need to make stock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,8 +1176,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,12 +1195,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3D2F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,12 +1232,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1101,6 +1263,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,10 +1318,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1179,22 +1346,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1203,7 +1379,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1523,326 +1698,898 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45507051-6332-471A-A26F-86C0F907D117}">
-  <dimension ref="A1:M39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8262BF84-5607-4098-92E4-6878602818BF}">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="35.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>350</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>343</v>
+      </c>
+      <c r="B19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>342</v>
+      </c>
+      <c r="I19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>344</v>
+      </c>
+      <c r="B20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B23" t="s">
+        <v>353</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45507051-6332-471A-A26F-86C0F907D117}">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="77" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" customWidth="1"/>
+    <col min="3" max="3" width="78.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.453125" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1"/>
+      <c r="E1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2"/>
+      <c r="B2" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C2" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="H2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
+    </row>
+    <row r="3" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3"/>
+      <c r="B3" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" t="s">
         <v>298</v>
       </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>272</v>
+      </c>
+      <c r="K6" t="s">
+        <v>273</v>
+      </c>
+      <c r="M6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F7" t="s">
         <v>240</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" t="s">
+        <v>278</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
-        <v>275</v>
-      </c>
-      <c r="K4" t="s">
-        <v>268</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>259</v>
+      </c>
+      <c r="K10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" t="s">
         <v>148</v>
       </c>
-      <c r="C5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" t="s">
-        <v>284</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>276</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>240</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" t="s">
         <v>4</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H12" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>255</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" t="s">
-        <v>239</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" t="s">
-        <v>277</v>
-      </c>
-      <c r="L11" t="s">
-        <v>278</v>
-      </c>
-      <c r="M11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
+      <c r="I12" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="J12" t="s">
+        <v>252</v>
+      </c>
+      <c r="K12" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>243</v>
-      </c>
-      <c r="G13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" t="s">
-        <v>258</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1</v>
-      </c>
+      <c r="I13" s="29"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B14" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>305</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>223</v>
       </c>
       <c r="E14" t="s">
-        <v>239</v>
+        <v>312</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>4</v>
@@ -1850,567 +2597,772 @@
       <c r="H14" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="29"/>
+      <c r="J14" t="s">
+        <v>311</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
         <v>3</v>
       </c>
-      <c r="K14" t="s">
-        <v>270</v>
-      </c>
-      <c r="L14" s="30" t="s">
+      <c r="I15" s="29"/>
+      <c r="J15" t="s">
+        <v>315</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" t="s">
+        <v>317</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" t="s">
+        <v>318</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" t="s">
+        <v>320</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" t="s">
+        <v>321</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D20" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" t="s">
+        <v>322</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" t="s">
+        <v>323</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I21" s="29"/>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I22" s="29"/>
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I23" s="29"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I24" s="29"/>
+      <c r="K24" s="27"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C26" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="28" t="s">
+    <row r="27" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="H18" s="28" t="s">
+      <c r="F27" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H27" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="L18" s="28" t="s">
+      <c r="J27" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="28" t="s">
+      <c r="M27" s="25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="D28" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="E28" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="F28" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G28" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H28" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="28" t="s">
+      <c r="J28" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="K28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M28" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
+    <row r="29" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="28" t="s">
+      <c r="D29" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="K29" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="E30" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="F30" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="28" t="s">
+      <c r="J30" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
+    <row r="31" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="28" t="s">
+      <c r="D31" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="28" t="s">
+      <c r="F33" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="L24" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="M26" s="28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="L28" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="L29" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="L30" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="L31" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="B33" s="25" t="s">
+      <c r="G33" s="25" t="s">
         <v>30</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>4</v>
       </c>
       <c r="H33" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="J33" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" s="25" t="s">
+      <c r="J34" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>288</v>
-      </c>
-      <c r="B35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="35" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="E35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="H35" t="s">
+    </row>
+    <row r="36" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="K35" t="s">
+      <c r="J36" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="28"/>
+    </row>
+    <row r="37" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="L35" t="s">
+      <c r="K37" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="38" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" t="s">
-        <v>240</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="D42" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H42" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M42" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="J43" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="K44" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="K45" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K37" t="s">
-        <v>262</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="J46" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="K46" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>280</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" t="s">
-        <v>227</v>
-      </c>
-      <c r="E38" t="s">
-        <v>239</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" t="s">
-        <v>267</v>
-      </c>
-      <c r="L38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>293</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" t="s">
-        <v>226</v>
-      </c>
-      <c r="E39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" t="s">
-        <v>3</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" t="s">
-        <v>266</v>
-      </c>
-      <c r="L39" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:E14">
-    <sortCondition ref="B7:B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:F4">
+    <sortCondition ref="D2:D4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E7FA6A-266C-4628-A4E0-EC60C63E5376}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="N3" sqref="N3:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2421,460 +3373,510 @@
     <col min="7" max="7" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="N2" s="30"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" t="s">
+        <v>224</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="O3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" t="s">
+        <v>225</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="O4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="N5" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N6" s="30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B8" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H8" t="s">
+        <v>232</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B9" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>230</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B14" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B15" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="23" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E2" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B34" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="H8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" t="s">
         <v>213</v>
       </c>
-      <c r="G11" s="25" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="H11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" t="s">
         <v>210</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="H13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" t="s">
-        <v>219</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>220</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" t="s">
-        <v>221</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="H19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" t="s">
-        <v>223</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="H21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s">
-        <v>220</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" t="s">
-        <v>218</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C24" t="s">
-        <v>211</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="B35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="B36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="B40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="B41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="B42" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="B43" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="B44" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:B46">
     <sortCondition ref="A34:A46"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580734EC-3AE3-46FE-870E-F977ED41E610}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="43" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:W19"/>
+    <sheetView zoomScale="43" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2888,398 +3890,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>141</v>
       </c>
+      <c r="E1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>140</v>
+      <c r="A2" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>137</v>
+      <c r="A4" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" t="s">
         <v>131</v>
       </c>
-      <c r="C4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="P5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" t="s">
-        <v>134</v>
-      </c>
-      <c r="P4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K5" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" t="s">
-        <v>107</v>
-      </c>
-      <c r="O5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="O6" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="L6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" t="s">
-        <v>129</v>
-      </c>
-      <c r="P6" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K7" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>127</v>
+      <c r="A8" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K9" s="15" t="s">
-        <v>125</v>
+      <c r="K9" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="O11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E12" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K13" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="O14" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E15" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" t="s">
+        <v>107</v>
+      </c>
+      <c r="P15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K16" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
+      <c r="L16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O17" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="O18" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
         <v>96</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="O11" t="s">
-        <v>121</v>
-      </c>
-      <c r="P11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E12" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="L12" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12" t="s">
-        <v>118</v>
-      </c>
-      <c r="P12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K13" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="O14" t="s">
-        <v>113</v>
-      </c>
-      <c r="P14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E15" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="O15" t="s">
-        <v>109</v>
-      </c>
-      <c r="P15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K16" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O17" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="P17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" t="s">
-        <v>90</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="K19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="K20" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" t="s">
-        <v>101</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" t="s">
-        <v>96</v>
-      </c>
       <c r="O21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
-        <v>89</v>
+      <c r="A24" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>81</v>
+      <c r="A26" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>84</v>
+      <c r="A29" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +4290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0722FE9-262C-4887-9CFE-65BA2BCE9EDD}">
   <dimension ref="A1:T43"/>
   <sheetViews>
@@ -3302,39 +4304,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="5">
         <v>21</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="M2" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="G2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="M2" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -3342,35 +4344,35 @@
       <c r="M3">
         <v>76</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>58</v>
+      <c r="N3" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>80</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="G4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
       <c r="J4">
         <v>674</v>
       </c>
       <c r="M4">
         <v>53</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>57</v>
+      <c r="N4" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>80</v>
@@ -3378,35 +4380,35 @@
       <c r="M5">
         <v>81</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>56</v>
+      <c r="N5" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>79</v>
       </c>
-      <c r="G6" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="G6" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6">
         <v>812</v>
       </c>
       <c r="M6">
         <v>81</v>
       </c>
-      <c r="N6" s="11" t="s">
-        <v>55</v>
+      <c r="N6" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>87</v>
@@ -3414,35 +4416,35 @@
       <c r="M7">
         <v>124</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>54</v>
+      <c r="N7" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>81</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="4">
+      <c r="G8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="3">
         <v>4</v>
       </c>
       <c r="M8">
         <v>21</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>53</v>
+      <c r="N8" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>72</v>
@@ -3450,31 +4452,31 @@
       <c r="M9">
         <v>77</v>
       </c>
-      <c r="N9" s="11" t="s">
-        <v>52</v>
+      <c r="N9" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>80</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <f>SUM(J4:J8)</f>
         <v>1490</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>161</v>
       </c>
-      <c r="N10" s="10" t="s">
-        <v>51</v>
+      <c r="N10" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>103</v>
@@ -3484,60 +4486,60 @@
         <v>681</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="3">
+        <v>62</v>
+      </c>
+      <c r="M11" s="2">
         <f>SUM(M3:M10)</f>
         <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="4">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f>SUM(B2:B12)</f>
         <v>812</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="M17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
+      <c r="B17" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="M17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
     </row>
     <row r="18" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>49</v>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="P19">
         <v>59</v>
@@ -3553,7 +4555,7 @@
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <f>SUM(C26+F43+H27)</f>
         <v>329</v>
       </c>
@@ -3568,8 +4570,8 @@
       <c r="H21">
         <v>12</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>48</v>
+      <c r="M21" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="P21">
         <v>240</v>
@@ -3596,12 +4598,12 @@
       <c r="H23">
         <v>5</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4">
+      <c r="M23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3">
         <v>30</v>
       </c>
     </row>
@@ -3617,7 +4619,7 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>24</v>
       </c>
       <c r="F25">
@@ -3632,14 +4634,14 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <f>SUM(C20:C25)</f>
         <v>59</v>
       </c>
       <c r="F26">
         <v>18</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3647,7 +4649,7 @@
       <c r="F27">
         <v>16</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <f>SUM(H20:H26)</f>
         <v>30</v>
       </c>
@@ -3711,9 +4713,9 @@
       <c r="F39">
         <v>12</v>
       </c>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
     </row>
     <row r="40" spans="6:20" x14ac:dyDescent="0.35">
       <c r="F40">
@@ -3726,12 +4728,12 @@
       </c>
     </row>
     <row r="42" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="6:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <f>SUM(F20:F42)</f>
         <v>240</v>
       </c>

--- a/OREI_files/10-herd data/MALDI files/Organizational sheets for MALDI shipments and IDs_ redos_counts_ regrows.xlsx
+++ b/OREI_files/10-herd data/MALDI files/Organizational sheets for MALDI shipments and IDs_ redos_counts_ regrows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/MALDI files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="398" documentId="14_{1DC52327-D03E-4E84-85ED-8BE1BCB3BCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96CD2BFC-6E65-4623-8C6A-1D732E181C95}"/>
+  <xr:revisionPtr revIDLastSave="399" documentId="14_{1DC52327-D03E-4E84-85ED-8BE1BCB3BCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E586084E-71A5-454B-BACA-CBD32641F397}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F455A7E1-6A31-4F36-AA10-0D3A3572E850}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{F455A7E1-6A31-4F36-AA10-0D3A3572E850}"/>
   </bookViews>
   <sheets>
     <sheet name="August 2021 submission" sheetId="6" r:id="rId1"/>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>sp</t>
-  </si>
-  <si>
-    <t>Isolates left for OREI 10-herd:</t>
   </si>
   <si>
     <t>pb</t>
@@ -1124,6 +1121,9 @@
   </si>
   <si>
     <t>need to make stock</t>
+  </si>
+  <si>
+    <t>Isolates left for OREI 10-herd quartermilks:</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1376,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1701,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8262BF84-5607-4098-92E4-6878602818BF}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+    <sheetView zoomScale="69" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1719,100 +1719,100 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F1" s="33"/>
       <c r="G1" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
@@ -1821,21 +1821,21 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
@@ -1847,21 +1847,21 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
@@ -1873,44 +1873,44 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>30</v>
@@ -1919,18 +1919,18 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1945,18 +1945,18 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1971,44 +1971,44 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
@@ -2020,47 +2020,47 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E19" t="s">
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F20" t="s">
         <v>30</v>
@@ -2069,45 +2069,45 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F21" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
@@ -2116,41 +2116,41 @@
         <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>15</v>
@@ -2176,35 +2176,35 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2261,34 +2261,34 @@
         <v>38</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2"/>
       <c r="B2" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>1</v>
@@ -2297,45 +2297,45 @@
     <row r="3" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>30</v>
@@ -2347,53 +2347,53 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -2402,39 +2402,39 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
+        <v>271</v>
+      </c>
+      <c r="K6" t="s">
         <v>272</v>
       </c>
-      <c r="K6" t="s">
-        <v>273</v>
-      </c>
       <c r="M6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K7" t="s">
         <v>1</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>16</v>
@@ -2480,31 +2480,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K9" t="s">
         <v>1</v>
@@ -2512,22 +2512,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" t="s">
         <v>172</v>
       </c>
-      <c r="E10" t="s">
-        <v>173</v>
-      </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
@@ -2536,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K10" t="s">
         <v>1</v>
@@ -2544,16 +2544,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
@@ -2562,13 +2562,13 @@
         <v>3</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -2577,16 +2577,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I14" s="29"/>
       <c r="J14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>1</v>
@@ -2607,16 +2607,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F15" t="s">
         <v>31</v>
@@ -2629,34 +2629,34 @@
       </c>
       <c r="I15" s="29"/>
       <c r="J15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F16" t="s">
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>1</v>
@@ -2664,16 +2664,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>30</v>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="I17" s="29"/>
       <c r="J17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K17" s="31" t="s">
         <v>1</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I18" s="29"/>
       <c r="J18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K18" s="31" t="s">
         <v>1</v>
@@ -2721,13 +2721,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="I19" s="29"/>
       <c r="J19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>1</v>
@@ -2751,23 +2751,23 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D20" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F20" t="s">
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H20" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K20" s="31" t="s">
         <v>1</v>
@@ -2791,36 +2791,36 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C26" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C27" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H27" s="25" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K27" s="25" t="s">
         <v>1</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
@@ -2944,7 +2944,7 @@
         <v>23</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>22</v>
@@ -2965,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
@@ -2973,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>32</v>
@@ -2988,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K33" s="25" t="s">
         <v>1</v>
@@ -3025,13 +3025,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>4</v>
@@ -3040,13 +3040,13 @@
         <v>11</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K35" s="25" t="s">
         <v>1</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
@@ -3054,10 +3054,10 @@
         <v>8</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F36" s="28" t="s">
         <v>31</v>
@@ -3069,7 +3069,7 @@
         <v>3</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K36" s="25" t="s">
         <v>1</v>
@@ -3081,10 +3081,10 @@
         <v>8</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>31</v>
@@ -3096,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K37" s="25" t="s">
         <v>1</v>
@@ -3107,7 +3107,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>32</v>
@@ -3122,7 +3122,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K38" s="25" t="s">
         <v>1</v>
@@ -3133,13 +3133,13 @@
         <v>8</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>4</v>
@@ -3148,7 +3148,7 @@
         <v>11</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K39" s="25" t="s">
         <v>1</v>
@@ -3159,13 +3159,13 @@
         <v>8</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G40" s="25" t="s">
         <v>4</v>
@@ -3174,7 +3174,7 @@
         <v>11</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K40" s="25" t="s">
         <v>1</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="41" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C41" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>28</v>
@@ -3209,12 +3209,12 @@
         <v>1</v>
       </c>
       <c r="L41" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>20</v>
@@ -3229,7 +3229,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J42" s="25" t="s">
         <v>18</v>
@@ -3243,25 +3243,25 @@
     </row>
     <row r="43" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C43" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>6</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G43" s="25" t="s">
         <v>4</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K43" s="25" t="s">
         <v>1</v>
@@ -3269,25 +3269,25 @@
     </row>
     <row r="44" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C44" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>31</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H44" s="25" t="s">
         <v>3</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K44" s="25" t="s">
         <v>1</v>
@@ -3295,16 +3295,16 @@
     </row>
     <row r="45" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C45" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G45" s="25" t="s">
         <v>30</v>
@@ -3313,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K45" s="25" t="s">
         <v>1</v>
@@ -3321,13 +3321,13 @@
     </row>
     <row r="46" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C46" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>31</v>
@@ -3342,7 +3342,7 @@
         <v>11</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K46" s="25" t="s">
         <v>1</v>
@@ -3375,489 +3375,489 @@
   <sheetData>
     <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O1" s="35"/>
       <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="E2" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
         <v>172</v>
       </c>
-      <c r="F2" t="s">
-        <v>173</v>
-      </c>
       <c r="M2" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
       <c r="E5" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G5" s="22"/>
       <c r="N5" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="N6" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B11" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B12" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B13" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B14" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B15" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B16" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3892,289 +3892,289 @@
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12"/>
       <c r="B1" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K5" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" t="s">
         <v>105</v>
-      </c>
-      <c r="O5" t="s">
-        <v>131</v>
-      </c>
-      <c r="P5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K7" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K9" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" s="14"/>
       <c r="O11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E12" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K13" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E15" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="K16" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O17" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -4182,106 +4182,106 @@
         <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="K20" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4294,8 +4294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0722FE9-262C-4887-9CFE-65BA2BCE9EDD}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4305,7 +4305,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4314,13 +4314,13 @@
     </row>
     <row r="2" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5">
         <v>21</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="3" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -4350,13 +4350,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>80</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>80</v>
@@ -4386,13 +4386,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>79</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>87</v>
@@ -4422,14 +4422,16 @@
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>81</v>
       </c>
-      <c r="G8" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="E8" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
       <c r="J8" s="3">
@@ -4745,7 +4747,7 @@
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="E8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OREI_files/10-herd data/MALDI files/Organizational sheets for MALDI shipments and IDs_ redos_counts_ regrows.xlsx
+++ b/OREI_files/10-herd data/MALDI files/Organizational sheets for MALDI shipments and IDs_ redos_counts_ regrows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/MALDI files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="399" documentId="14_{1DC52327-D03E-4E84-85ED-8BE1BCB3BCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E586084E-71A5-454B-BACA-CBD32641F397}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_FC9837E95CB56033D61C1713E57B5A6E92CE8CB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E60F7EC2-4703-422E-BE2A-814AAFAD90A1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{F455A7E1-6A31-4F36-AA10-0D3A3572E850}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="August 2021 submission" sheetId="6" r:id="rId1"/>
@@ -20,16 +20,24 @@
     <sheet name="counts of isolates sent" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="353">
   <si>
     <t xml:space="preserve">should have been ID'd as CNS as cat was positive initially </t>
   </si>
@@ -722,9 +730,6 @@
   </si>
   <si>
     <t>Hasn't been sent yet</t>
-  </si>
-  <si>
-    <t>Sent in Jan in "Misc OREI", no ID yet</t>
   </si>
   <si>
     <t xml:space="preserve">There actually IS no isolate 19 for Choiniere </t>
@@ -1114,16 +1119,16 @@
     <t>gram + cocci?</t>
   </si>
   <si>
-    <t>make miss copy LF091, PB067, SW114</t>
-  </si>
-  <si>
-    <t>make 2 copies CF240, OB131 when ready</t>
-  </si>
-  <si>
-    <t>need to make stock</t>
-  </si>
-  <si>
     <t>Isolates left for OREI 10-herd quartermilks:</t>
+  </si>
+  <si>
+    <t>x 8.9 stock good to send</t>
+  </si>
+  <si>
+    <t>x 8.26 stock good to send, REPLACE UVM WITH NEW ONE</t>
+  </si>
+  <si>
+    <t>Sent in Jan in "Misc OREI", resolved 10.21</t>
   </si>
 </sst>
 </file>
@@ -1698,57 +1703,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8262BF84-5607-4098-92E4-6878602818BF}">
-  <dimension ref="A1:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A2" zoomScale="66" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="80.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" customWidth="1"/>
-    <col min="4" max="4" width="35.26953125" customWidth="1"/>
+    <col min="2" max="2" width="67.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" customWidth="1"/>
+    <col min="4" max="4" width="48.54296875" customWidth="1"/>
     <col min="5" max="5" width="12.453125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
     <col min="10" max="10" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F1" s="33"/>
       <c r="G1" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>80</v>
@@ -1756,10 +1761,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>79</v>
@@ -1767,10 +1772,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>125</v>
@@ -1778,10 +1783,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>177</v>
@@ -1789,10 +1794,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>163</v>
@@ -1800,19 +1805,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
@@ -1821,21 +1826,21 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
@@ -1847,21 +1852,21 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
@@ -1873,44 +1878,44 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B13" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>30</v>
@@ -1919,15 +1924,15 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B14" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>181</v>
@@ -1945,15 +1950,15 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>114</v>
@@ -1971,15 +1976,15 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>183</v>
@@ -1988,27 +1993,27 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
@@ -2020,38 +2025,38 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E19" t="s">
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B20" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>157</v>
@@ -2060,7 +2065,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F20" t="s">
         <v>30</v>
@@ -2069,15 +2074,15 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>159</v>
@@ -2086,28 +2091,28 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F21" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>155</v>
       </c>
       <c r="D22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
@@ -2116,15 +2121,15 @@
         <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>156</v>
@@ -2133,7 +2138,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -2142,15 +2147,15 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>15</v>
@@ -2176,35 +2181,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="B25" t="s">
+        <v>350</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D29" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D31" t="s">
-        <v>351</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2212,28 +2210,31 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="I1:J1"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45507051-6332-471A-A26F-86C0F907D117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="77" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="40.453125" customWidth="1"/>
-    <col min="3" max="3" width="78.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.453125" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.90625" customWidth="1"/>
+    <col min="3" max="3" width="78.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="29.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="61.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.08984375" customWidth="1"/>
     <col min="12" max="12" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2261,34 +2262,34 @@
         <v>38</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2"/>
       <c r="B2" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>151</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>1</v>
@@ -2297,36 +2298,36 @@
     <row r="3" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D4" t="s">
         <v>157</v>
@@ -2335,7 +2336,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>30</v>
@@ -2347,21 +2348,21 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>159</v>
@@ -2370,30 +2371,30 @@
         <v>14</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D6" t="s">
         <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -2402,21 +2403,21 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
+        <v>270</v>
+      </c>
+      <c r="K6" t="s">
         <v>271</v>
       </c>
-      <c r="K6" t="s">
-        <v>272</v>
-      </c>
       <c r="M6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D7" t="s">
         <v>156</v>
@@ -2425,7 +2426,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G7" t="s">
         <v>84</v>
@@ -2434,7 +2435,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K7" t="s">
         <v>1</v>
@@ -2442,10 +2443,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>16</v>
@@ -2480,31 +2481,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D9" t="s">
         <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K9" t="s">
         <v>1</v>
@@ -2512,13 +2513,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>171</v>
@@ -2527,7 +2528,7 @@
         <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
@@ -2536,7 +2537,7 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K10" t="s">
         <v>1</v>
@@ -2544,7 +2545,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D12" t="s">
         <v>147</v>
@@ -2553,7 +2554,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
@@ -2562,13 +2563,13 @@
         <v>3</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -2577,16 +2578,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
@@ -2599,7 +2600,7 @@
       </c>
       <c r="I14" s="29"/>
       <c r="J14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>1</v>
@@ -2607,16 +2608,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F15" t="s">
         <v>31</v>
@@ -2629,34 +2630,34 @@
       </c>
       <c r="I15" s="29"/>
       <c r="J15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F16" t="s">
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>1</v>
@@ -2664,16 +2665,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>30</v>
@@ -2683,7 +2684,7 @@
       </c>
       <c r="I17" s="29"/>
       <c r="J17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K17" s="31" t="s">
         <v>1</v>
@@ -2691,10 +2692,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>181</v>
@@ -2713,7 +2714,7 @@
       </c>
       <c r="I18" s="29"/>
       <c r="J18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K18" s="31" t="s">
         <v>1</v>
@@ -2721,10 +2722,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>114</v>
@@ -2743,7 +2744,7 @@
       </c>
       <c r="I19" s="29"/>
       <c r="J19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>1</v>
@@ -2754,20 +2755,20 @@
         <v>183</v>
       </c>
       <c r="E20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F20" t="s">
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H20" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K20" s="31" t="s">
         <v>1</v>
@@ -2791,36 +2792,36 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C26" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C27" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>143</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H27" s="25" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K27" s="25" t="s">
         <v>1</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
@@ -2933,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
@@ -2944,7 +2945,7 @@
         <v>23</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>22</v>
@@ -2965,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
@@ -2988,7 +2989,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K33" s="25" t="s">
         <v>1</v>
@@ -3028,10 +3029,10 @@
         <v>153</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>4</v>
@@ -3040,13 +3041,13 @@
         <v>11</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K35" s="25" t="s">
         <v>1</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
@@ -3057,7 +3058,7 @@
         <v>152</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F36" s="28" t="s">
         <v>31</v>
@@ -3069,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K36" s="25" t="s">
         <v>1</v>
@@ -3084,7 +3085,7 @@
         <v>148</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>31</v>
@@ -3096,7 +3097,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K37" s="25" t="s">
         <v>1</v>
@@ -3122,7 +3123,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K38" s="25" t="s">
         <v>1</v>
@@ -3136,10 +3137,10 @@
         <v>154</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>4</v>
@@ -3148,7 +3149,7 @@
         <v>11</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K39" s="25" t="s">
         <v>1</v>
@@ -3162,10 +3163,10 @@
         <v>146</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G40" s="25" t="s">
         <v>4</v>
@@ -3174,7 +3175,7 @@
         <v>11</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K40" s="25" t="s">
         <v>1</v>
@@ -3182,7 +3183,7 @@
     </row>
     <row r="41" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C41" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>28</v>
@@ -3209,12 +3210,12 @@
         <v>1</v>
       </c>
       <c r="L41" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>20</v>
@@ -3229,7 +3230,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J42" s="25" t="s">
         <v>18</v>
@@ -3243,7 +3244,7 @@
     </row>
     <row r="43" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C43" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>144</v>
@@ -3252,16 +3253,16 @@
         <v>6</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G43" s="25" t="s">
         <v>4</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K43" s="25" t="s">
         <v>1</v>
@@ -3269,25 +3270,25 @@
     </row>
     <row r="44" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C44" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>158</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>31</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H44" s="25" t="s">
         <v>3</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K44" s="25" t="s">
         <v>1</v>
@@ -3295,7 +3296,7 @@
     </row>
     <row r="45" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C45" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>204</v>
@@ -3304,7 +3305,7 @@
         <v>224</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G45" s="25" t="s">
         <v>30</v>
@@ -3313,7 +3314,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K45" s="25" t="s">
         <v>1</v>
@@ -3321,7 +3322,7 @@
     </row>
     <row r="46" spans="3:13" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C46" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>203</v>
@@ -3342,7 +3343,7 @@
         <v>11</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K46" s="25" t="s">
         <v>1</v>
@@ -3358,16 +3359,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E7FA6A-266C-4628-A4E0-EC60C63E5376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N10"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" customWidth="1"/>
     <col min="7" max="7" width="26.7265625" customWidth="1"/>
@@ -3381,7 +3382,7 @@
         <v>167</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O1" s="35"/>
       <c r="P1" s="35"/>
@@ -3394,7 +3395,7 @@
         <v>172</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N2" s="30"/>
     </row>
@@ -3412,7 +3413,7 @@
         <v>171</v>
       </c>
       <c r="O3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -3429,7 +3430,7 @@
         <v>222</v>
       </c>
       <c r="O4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -3450,12 +3451,12 @@
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="N6" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -3476,11 +3477,11 @@
       <c r="C8" t="s">
         <v>207</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="29" t="s">
         <v>162</v>
       </c>
       <c r="H8" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c r="N8" s="30" t="s">
         <v>181</v>
@@ -3503,7 +3504,7 @@
         <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -3534,7 +3535,7 @@
         <v>195</v>
       </c>
       <c r="H11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -3548,7 +3549,7 @@
         <v>200</v>
       </c>
       <c r="H12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -3558,11 +3559,11 @@
       <c r="C13" t="s">
         <v>215</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="29" t="s">
         <v>205</v>
       </c>
       <c r="H13" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -3600,11 +3601,11 @@
       <c r="C16" t="s">
         <v>217</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="29" t="s">
         <v>187</v>
       </c>
       <c r="H16" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
@@ -3614,11 +3615,11 @@
       <c r="C17" t="s">
         <v>215</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="29" t="s">
         <v>188</v>
       </c>
       <c r="H17" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
@@ -3628,11 +3629,11 @@
       <c r="C18" t="s">
         <v>218</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="29" t="s">
         <v>189</v>
       </c>
       <c r="H18" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
@@ -3646,7 +3647,7 @@
         <v>181</v>
       </c>
       <c r="H19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
@@ -3656,11 +3657,11 @@
       <c r="C20" t="s">
         <v>215</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="29" t="s">
         <v>182</v>
       </c>
       <c r="H20" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
@@ -3684,11 +3685,11 @@
       <c r="C22" t="s">
         <v>217</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="29" t="s">
         <v>168</v>
       </c>
       <c r="H22" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
@@ -3872,7 +3873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580734EC-3AE3-46FE-870E-F977ED41E610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView zoomScale="43" workbookViewId="0">
@@ -3881,9 +3882,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="18.54296875" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
@@ -4291,10 +4292,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0722FE9-262C-4887-9CFE-65BA2BCE9EDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -4428,7 +4429,7 @@
         <v>81</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>

--- a/OREI_files/10-herd data/MALDI files/Organizational sheets for MALDI shipments and IDs_ redos_counts_ regrows.xlsx
+++ b/OREI_files/10-herd data/MALDI files/Organizational sheets for MALDI shipments and IDs_ redos_counts_ regrows.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="30" documentId="11_FC9837E95CB56033D61C1713E57B5A6E92CE8CB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E60F7EC2-4703-422E-BE2A-814AAFAD90A1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="August 2021 submission" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="counts of isolates sent" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1706,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="66" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D31"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2220,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -3363,7 +3362,7 @@
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3876,8 +3875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView zoomScale="43" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" zoomScale="43" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
